--- a/course_data.xlsx
+++ b/course_data.xlsx
@@ -539,7 +539,7 @@
         <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -794,7 +794,7 @@
         <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -998,7 +998,7 @@
         <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1165,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C107</t>
         </is>
       </c>
     </row>
@@ -1205,115 +1205,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>C108</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C102</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C114</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C107</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C109</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>C115</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>C106</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>C112</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>C108</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>C114</t>
         </is>
       </c>
     </row>

--- a/course_data.xlsx
+++ b/course_data.xlsx
@@ -590,7 +590,7 @@
         <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -743,7 +743,7 @@
         <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -794,7 +794,7 @@
         <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -845,7 +845,7 @@
         <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -947,7 +947,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -998,7 +998,7 @@
         <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1100,7 +1100,7 @@
         <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1151,7 +1151,7 @@
         <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C107</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C108</t>
+          <t>C103</t>
         </is>
       </c>
     </row>
@@ -1216,6 +1216,66 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>C108</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C109</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C111</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C112</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C113</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>C115</t>
         </is>

--- a/course_data.xlsx
+++ b/course_data.xlsx
@@ -590,7 +590,7 @@
         <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -743,7 +743,7 @@
         <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -794,7 +794,7 @@
         <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
         <v>60</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -947,7 +947,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1100,7 +1100,7 @@
         <v>60</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1151,7 +1151,7 @@
         <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,43 +1241,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C111</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C112</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>C113</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>C115</t>
         </is>
       </c>
     </row>

--- a/course_data.xlsx
+++ b/course_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amber\Desktop\FCUCourse-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amber\Desktop\功課\三\軟工\FCUCourse-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD5B9DD-C2D5-46BA-A9D6-45E07CEE4CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F86725-1109-46A5-BF21-E722E584D6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>day</t>
   </si>
@@ -59,239 +59,230 @@
     <t>星期一</t>
   </si>
   <si>
+    <t>14:10~17:00</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>資料探勘</t>
+  </si>
+  <si>
+    <t>陳老師</t>
+  </si>
+  <si>
+    <t>資電101</t>
+  </si>
+  <si>
+    <t>資料分析</t>
+  </si>
+  <si>
+    <t>期中30 期末30 平時40</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>8:10~12:00</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>程式設計I</t>
+  </si>
+  <si>
+    <t>安老師</t>
+  </si>
+  <si>
+    <t>人言102</t>
+  </si>
+  <si>
+    <t>C語言</t>
+  </si>
+  <si>
+    <t>13:10~15:00</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>通識1</t>
+  </si>
+  <si>
+    <t>張老師</t>
+  </si>
+  <si>
+    <t>人言101</t>
+  </si>
+  <si>
+    <t>認識植物</t>
+  </si>
+  <si>
+    <t>15:10~17:00</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>韓文</t>
+  </si>
+  <si>
+    <t>韓老師</t>
+  </si>
+  <si>
+    <t>人言110</t>
+  </si>
+  <si>
+    <t>認識動物</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>通識2</t>
+  </si>
+  <si>
+    <t>許老師</t>
+  </si>
+  <si>
+    <t>人言103</t>
+  </si>
+  <si>
+    <t>追idol專用</t>
+  </si>
+  <si>
+    <t>C114</t>
+  </si>
+  <si>
+    <t>外系</t>
+  </si>
+  <si>
+    <t>田老師</t>
+  </si>
+  <si>
+    <t>商學101</t>
+  </si>
+  <si>
+    <t>理財規劃</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>8:10~10:00</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>作業系統</t>
+  </si>
+  <si>
+    <t>人言201</t>
+  </si>
+  <si>
+    <t>系統背後的功臣</t>
+  </si>
+  <si>
+    <t>10:10~12:00</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>資料科學</t>
+  </si>
+  <si>
+    <t>麥老師</t>
+  </si>
+  <si>
+    <t>R語言</t>
+  </si>
+  <si>
+    <t>C115</t>
+  </si>
+  <si>
+    <t>微處理機</t>
+  </si>
+  <si>
+    <t>資電201</t>
+  </si>
+  <si>
+    <t>將腦細細胞處理乾淨的程式</t>
+  </si>
+  <si>
+    <t>8:10~9:00</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>密碼學</t>
+  </si>
+  <si>
+    <t>用程式寫密碼</t>
+  </si>
+  <si>
+    <t>9:10~10:00</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>離散數學</t>
+  </si>
+  <si>
+    <t>李老師</t>
+  </si>
+  <si>
+    <t>資電102</t>
+  </si>
+  <si>
+    <t>就是離散</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>微積分</t>
+  </si>
+  <si>
+    <t>王老師</t>
+  </si>
+  <si>
+    <t>資電103</t>
+  </si>
+  <si>
+    <t>危機分</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
     <t>10:10~11:00</t>
   </si>
   <si>
-    <t>C107</t>
-  </si>
-  <si>
     <t>英文</t>
   </si>
   <si>
-    <t>麥老師</t>
-  </si>
-  <si>
-    <t>資電101</t>
-  </si>
-  <si>
     <t>出國必備</t>
-  </si>
-  <si>
-    <t>期中30 期末30 平時40</t>
-  </si>
-  <si>
-    <t>14:10~17:00</t>
-  </si>
-  <si>
-    <t>C112</t>
-  </si>
-  <si>
-    <t>資料探勘</t>
-  </si>
-  <si>
-    <t>陳老師</t>
-  </si>
-  <si>
-    <t>資料分析</t>
-  </si>
-  <si>
-    <t>星期二</t>
-  </si>
-  <si>
-    <t>8:10~12:00</t>
-  </si>
-  <si>
-    <t>C106</t>
-  </si>
-  <si>
-    <t>程式設計I</t>
-  </si>
-  <si>
-    <t>安老師</t>
-  </si>
-  <si>
-    <t>人言102</t>
-  </si>
-  <si>
-    <t>C語言</t>
-  </si>
-  <si>
-    <t>13:10~15:00</t>
-  </si>
-  <si>
-    <t>C110</t>
-  </si>
-  <si>
-    <t>通識1</t>
-  </si>
-  <si>
-    <t>張老師</t>
-  </si>
-  <si>
-    <t>人言110</t>
-  </si>
-  <si>
-    <t>認識動物</t>
-  </si>
-  <si>
-    <t>15:10~17:00</t>
-  </si>
-  <si>
-    <t>C113</t>
-  </si>
-  <si>
-    <t>韓文</t>
-  </si>
-  <si>
-    <t>韓老師</t>
-  </si>
-  <si>
-    <t>人言103</t>
-  </si>
-  <si>
-    <t>追idol專用</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>C108</t>
-  </si>
-  <si>
-    <t>通識2</t>
-  </si>
-  <si>
-    <t>許老師</t>
-  </si>
-  <si>
-    <t>人言101</t>
-  </si>
-  <si>
-    <t>認識植物</t>
-  </si>
-  <si>
-    <t>C114</t>
-  </si>
-  <si>
-    <t>外系</t>
-  </si>
-  <si>
-    <t>田老師</t>
-  </si>
-  <si>
-    <t>商學101</t>
-  </si>
-  <si>
-    <t>理財規劃</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>8:10~10:00</t>
-  </si>
-  <si>
-    <t>C109</t>
-  </si>
-  <si>
-    <t>作業系統</t>
-  </si>
-  <si>
-    <t>人言201</t>
-  </si>
-  <si>
-    <t>系統背後的功臣</t>
-  </si>
-  <si>
-    <t>10:10~12:00</t>
-  </si>
-  <si>
-    <t>C111</t>
-  </si>
-  <si>
-    <t>資料科學</t>
-  </si>
-  <si>
-    <t>R語言</t>
-  </si>
-  <si>
-    <t>C115</t>
-  </si>
-  <si>
-    <t>微處理機</t>
-  </si>
-  <si>
-    <t>資電201</t>
-  </si>
-  <si>
-    <t>將腦細細胞處理乾淨的程式</t>
-  </si>
-  <si>
-    <t>8:10~9:00</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>密碼學</t>
-  </si>
-  <si>
-    <t>用程式寫密碼</t>
-  </si>
-  <si>
-    <t>9:10~10:00</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>離散數學</t>
-  </si>
-  <si>
-    <t>李老師</t>
-  </si>
-  <si>
-    <t>資電102</t>
-  </si>
-  <si>
-    <t>就是離散</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>8:10~9:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微積分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王老師</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>資電103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>危機分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +304,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -345,13 +343,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -658,44 +674,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -704,22 +720,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -739,22 +755,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -771,25 +787,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -806,25 +822,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -836,30 +852,30 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -871,30 +887,30 @@
         <v>60</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -906,30 +922,30 @@
         <v>60</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -946,25 +962,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -981,25 +997,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -1016,25 +1032,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -1054,22 +1070,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -1081,7 +1097,7 @@
         <v>60</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1089,22 +1105,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -1116,30 +1132,30 @@
         <v>60</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -1157,65 +1173,67 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
